--- a/TestData/TMTI0054683_VerificationOfNewFieldAssociatedOpportunityAvailabiltyAndFunctionalityOnFROpportunityAndEngagementPage.xlsx
+++ b/TestData/TMTI0054683_VerificationOfNewFieldAssociatedOpportunityAvailabiltyAndFunctionalityOnFROpportunityAndEngagementPage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vijay.kumar\source\repos\SalesForce_Project\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VKumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58659F5-3C93-4843-B1E4-926662C3D625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2CE22A-76C3-4A95-93F6-C3807B54E03F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddOpportunity" sheetId="1" r:id="rId1"/>
@@ -253,7 +253,7 @@
     <t>AssociatedEngagement</t>
   </si>
   <si>
-    <t>Nexstar Media Group, Inc</t>
+    <t>Celsius Network</t>
   </si>
 </sst>
 </file>
@@ -981,38 +981,38 @@
       <selection activeCell="AG1" sqref="AG1:AG2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="14.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="21" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="27" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="11" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.33203125" customWidth="1"/>
-    <col min="29" max="29" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.28515625" customWidth="1"/>
+    <col min="29" max="29" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="12" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -1222,13 +1222,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -1264,17 +1264,17 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -1340,26 +1340,26 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>69</v>
       </c>
       <c r="B2" s="6"/>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -1376,25 +1376,25 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>74</v>
       </c>
